--- a/biology/Zoologie/Alouette_bateleuse/Alouette_bateleuse.xlsx
+++ b/biology/Zoologie/Alouette_bateleuse/Alouette_bateleuse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mirafra apiata
-L'Alouette bateleuse (Mirafra apiata) est une espèce d'oiseaux de la famille des Alaudidae. Son aire de répartition couvre l'Afrique du Sud, l'Angola, le Botswana, le Lesotho, la Namibie, le Swaziland, la Zambie et le Zimbabwe. Bien que les effectifs à l'état sauvage décroissent, l'Alouette bateleuse est considérée comme commune sur une grande partie de son aire de répartition[1]. L’Alouette bateleuse est chassée par le Chat à pieds noirs (Felis nigripes) et représente 2,4 % des proies attrapées par ce petit félin[2].
+L'Alouette bateleuse (Mirafra apiata) est une espèce d'oiseaux de la famille des Alaudidae. Son aire de répartition couvre l'Afrique du Sud, l'Angola, le Botswana, le Lesotho, la Namibie, le Swaziland, la Zambie et le Zimbabwe. Bien que les effectifs à l'état sauvage décroissent, l'Alouette bateleuse est considérée comme commune sur une grande partie de son aire de répartition. L’Alouette bateleuse est chassée par le Chat à pieds noirs (Felis nigripes) et représente 2,4 % des proies attrapées par ce petit félin.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon la classification de référence du Congrès ornithologique international  (version 11.1, 2021)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon la classification de référence du Congrès ornithologique international  (version 11.1, 2021) :
 sous-espèce Mirafra apiata apiata (Vieillot, 1816)
 sous-espèce Mirafra apiata marjoriae Winterbottom, 1956</t>
         </is>
